--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_68_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_68_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.2196621488935735, 2.7996426871949085]</t>
+          <t>[2.2133824682853507, 2.8059223678031313]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -619,14 +619,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.0402119645451533, 0.3133928617632691]</t>
+          <t>[-0.040185760536318504, 0.3133666577544343]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.1267101754968809</v>
+        <v>0.1266553563212633</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1267101754968809</v>
+        <v>0.1266553563212633</v>
       </c>
       <c r="W2" t="n">
         <v>10.774774774775</v>
